--- a/result/Analisis_Digitalisasi.xlsx
+++ b/result/Analisis_Digitalisasi.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,11 +59,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,548 +440,562 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.4" customWidth="1" min="1" max="1"/>
+    <col width="12.8" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="9.199999999999999" customWidth="1" min="4" max="4"/>
+    <col width="9.199999999999999" customWidth="1" min="5" max="5"/>
+    <col width="9.199999999999999" customWidth="1" min="6" max="6"/>
+    <col width="9.199999999999999" customWidth="1" min="7" max="7"/>
+    <col width="9.199999999999999" customWidth="1" min="8" max="8"/>
+    <col width="15.2" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="18.8" customWidth="1" min="11" max="11"/>
+    <col width="11.6" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Indikator</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Pertanyaan</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Skor 1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Skor 2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Skor 3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Skor 4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Skor 5</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Skor Aktual</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Skor Ideal</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Persentase (%)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Kategori</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Z.1</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>159</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1203</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Z.2</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>167</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1204</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Z.3</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1198</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Z.4</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>73</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Z.5</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="G2" t="n">
-        <v>116</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G6" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Z.6</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1203</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Z.7</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="I2" t="n">
-        <v>1202</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I8" s="3" t="n">
+        <v>1201</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <v>1875</v>
       </c>
-      <c r="K2" t="n">
-        <v>64.11</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K8" s="3" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>Netral</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Z.2</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Z.8</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1210</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Z.9</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1197</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>Netral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>59</v>
-      </c>
-      <c r="F3" t="n">
-        <v>167</v>
-      </c>
-      <c r="G3" t="n">
-        <v>121</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1203</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Z.10</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>173</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1197</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>1875</v>
       </c>
-      <c r="K3" t="n">
-        <v>64.16</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K11" s="3" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>Netral</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Z.3</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>173</v>
-      </c>
-      <c r="G4" t="n">
-        <v>115</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1196</v>
-      </c>
-      <c r="J4" t="n">
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Z.11</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1206</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <v>1875</v>
       </c>
-      <c r="K4" t="n">
-        <v>63.79</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Z.4</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>174</v>
-      </c>
-      <c r="G5" t="n">
-        <v>117</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1198</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K5" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Z.5</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>159</v>
-      </c>
-      <c r="G6" t="n">
-        <v>117</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1198</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K6" t="n">
-        <v>63.89</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Z.6</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55</v>
-      </c>
-      <c r="F7" t="n">
-        <v>192</v>
-      </c>
-      <c r="G7" t="n">
-        <v>97</v>
-      </c>
-      <c r="H7" t="n">
-        <v>24</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1201</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K7" t="n">
-        <v>64.05</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Z.7</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>56</v>
-      </c>
-      <c r="F8" t="n">
-        <v>180</v>
-      </c>
-      <c r="G8" t="n">
-        <v>107</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K8" t="n">
-        <v>64</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Z.8</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61</v>
-      </c>
-      <c r="F9" t="n">
-        <v>163</v>
-      </c>
-      <c r="G9" t="n">
-        <v>120</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1210</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K9" t="n">
-        <v>64.53</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>D9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Z.9</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>62</v>
-      </c>
-      <c r="F10" t="n">
-        <v>180</v>
-      </c>
-      <c r="G10" t="n">
-        <v>104</v>
-      </c>
-      <c r="H10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1197</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K10" t="n">
-        <v>63.84</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>D10</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Z.10</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>63</v>
-      </c>
-      <c r="F11" t="n">
-        <v>173</v>
-      </c>
-      <c r="G11" t="n">
-        <v>111</v>
-      </c>
-      <c r="H11" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1197</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K11" t="n">
-        <v>63.84</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Netral</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>D11</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Z.11</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>67</v>
-      </c>
-      <c r="F12" t="n">
-        <v>160</v>
-      </c>
-      <c r="G12" t="n">
-        <v>120</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1206</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>64.31999999999999</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>Netral</t>
         </is>
